--- a/test_units_holiday.xlsx
+++ b/test_units_holiday.xlsx
@@ -220,7 +220,7 @@
     <t>test3@army.mil.kr</t>
   </si>
   <si>
-    <t>설날 연휴(2/16-18) + 주말(2/14-15) 포함 → 2/13, 2/19, 2/20만 생성 (3일)</t>
+    <t>설날(2/16-18)+주말(2/14-15) → 2/13, 2/19, 2/20 생성 (3일)</t>
   </si>
   <si>
     <t>해병4사단(테스트)</t>
@@ -283,7 +283,7 @@
     <t>test5@army.mil.kr</t>
   </si>
   <si>
-    <t>어린이날(5/5)+대체공휴일(5/6) 포함 → 5/4, 5/7, 5/8만 생성 (3일)</t>
+    <t>어린이날(5/5)만 공휴일 → 5/4, 5/6, 5/7, 5/8 생성 (4일)</t>
   </si>
   <si>
     <t>공군6전투비행단(테스트)</t>
@@ -346,7 +346,7 @@
     <t>test7@army.mil.kr</t>
   </si>
   <si>
-    <t>삼일절(3/1,일)+주말(2/28-3/1) 포함 → 2/27, 3/2, 3/3, 3/4만 생성 (4일)</t>
+    <t>삼일절(3/1)+대체(3/2)+주말 → 2/27, 3/3, 3/4 생성 (3일)</t>
   </si>
   <si>
     <t>육군8사단(테스트)</t>
@@ -379,7 +379,7 @@
     <t>test8@army.mil.kr</t>
   </si>
   <si>
-    <t>광복절(8/15,토)+주말(8/15-16) 포함 → 8/13, 8/14, 8/17, 8/18만 생성 (4일)</t>
+    <t>광복절(8/15)+대체(8/17)+주말 → 8/13, 8/14, 8/18 생성 (3일)</t>
   </si>
   <si>
     <t>국직9부대(테스트)</t>
@@ -445,7 +445,7 @@
     <t>test10@army.mil.kr</t>
   </si>
   <si>
-    <t>개천절(10/3,토)+주말(10/3-4,10-11)+한글날(10/9) 포함 → 10/2, 10/5, 10/6, 10/7, 10/8, 10/12만 생성 (6일)</t>
+    <t>개천절+대체(10/5)+한글날(10/9)+주말 → 10/2, 10/6, 10/7, 10/8, 10/12 생성 (5일)</t>
   </si>
 </sst>
 </file>
